--- a/states.xlsx
+++ b/states.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnrandolph/Desktop/Github/voting-power/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DE8994-4FEC-E54A-8381-AD9008F74FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330EBCD7-9D3F-C841-AB66-E3A5C95ABB39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{41D7979D-D6FD-194B-8489-C32C243E0060}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>Alabama</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>538_prob_red</t>
+  </si>
+  <si>
+    <t>Equal</t>
   </si>
 </sst>
 </file>
@@ -618,19 +621,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D65553-FC8A-F34B-BB8D-81E89D276CA3}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="11"/>
+    <col min="4" max="4" width="18.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="14" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -646,8 +650,11 @@
       <c r="E1" s="11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,8 +670,11 @@
       <c r="E2" s="11">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -680,8 +690,11 @@
       <c r="E3" s="11">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -697,8 +710,11 @@
       <c r="E4" s="11">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -714,8 +730,11 @@
       <c r="E5" s="11">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -731,8 +750,11 @@
       <c r="E6" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -748,8 +770,11 @@
       <c r="E7" s="11">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -765,8 +790,11 @@
       <c r="E8" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -782,8 +810,11 @@
       <c r="E9" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -799,8 +830,11 @@
       <c r="E10" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -816,8 +850,11 @@
       <c r="E11" s="11">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -833,8 +870,11 @@
       <c r="E12" s="11">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -850,8 +890,11 @@
       <c r="E13" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -867,8 +910,11 @@
       <c r="E14" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -884,8 +930,11 @@
       <c r="E15" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -901,8 +950,11 @@
       <c r="E16" s="11">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -918,8 +970,11 @@
       <c r="E17" s="11">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -935,8 +990,11 @@
       <c r="E18" s="11">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -952,8 +1010,11 @@
       <c r="E19" s="11">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -969,8 +1030,11 @@
       <c r="E20" s="11">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -986,8 +1050,11 @@
       <c r="E21" s="11">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1003,8 +1070,11 @@
       <c r="E22" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1020,8 +1090,11 @@
       <c r="E23" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1037,8 +1110,11 @@
       <c r="E24" s="11">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1054,8 +1130,11 @@
       <c r="E25" s="11">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1071,8 +1150,11 @@
       <c r="E26" s="11">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1088,8 +1170,11 @@
       <c r="E27" s="11">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1105,8 +1190,11 @@
       <c r="E28" s="11">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1122,8 +1210,11 @@
       <c r="E29" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1139,8 +1230,11 @@
       <c r="E30" s="11">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1156,8 +1250,11 @@
       <c r="E31" s="11">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1173,8 +1270,11 @@
       <c r="E32" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1190,8 +1290,11 @@
       <c r="E33" s="11">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1207,8 +1310,11 @@
       <c r="E34" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1224,8 +1330,11 @@
       <c r="E35" s="11">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1241,8 +1350,11 @@
       <c r="E36" s="11">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1258,8 +1370,11 @@
       <c r="E37" s="11">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -1275,8 +1390,11 @@
       <c r="E38" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1292,8 +1410,11 @@
       <c r="E39" s="11">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -1309,8 +1430,11 @@
       <c r="E40" s="11">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -1326,8 +1450,11 @@
       <c r="E41" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -1343,8 +1470,11 @@
       <c r="E42" s="11">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -1360,8 +1490,11 @@
       <c r="E43" s="11">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -1377,8 +1510,11 @@
       <c r="E44" s="11">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -1394,8 +1530,11 @@
       <c r="E45" s="11">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -1411,8 +1550,11 @@
       <c r="E46" s="11">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -1428,8 +1570,11 @@
       <c r="E47" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -1445,8 +1590,11 @@
       <c r="E48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -1462,8 +1610,11 @@
       <c r="E49" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -1479,8 +1630,11 @@
       <c r="E50" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -1496,8 +1650,11 @@
       <c r="E51" s="11">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -1513,8 +1670,11 @@
       <c r="E52" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="4"/>
       <c r="C53" s="2"/>

--- a/states.xlsx
+++ b/states.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnrandolph/Desktop/Github/voting-power/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330EBCD7-9D3F-C841-AB66-E3A5C95ABB39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E315A87-BDAE-2943-8367-58E56F51B8C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{41D7979D-D6FD-194B-8489-C32C243E0060}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" xr2:uid="{41D7979D-D6FD-194B-8489-C32C243E0060}"/>
   </bookViews>
   <sheets>
     <sheet name="current" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="59">
   <si>
     <t>Alabama</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Equal</t>
+  </si>
+  <si>
+    <t>EV_2024</t>
   </si>
 </sst>
 </file>
@@ -621,20 +624,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D65553-FC8A-F34B-BB8D-81E89D276CA3}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="14" style="11" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -644,17 +647,20 @@
       <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,17 +670,20 @@
       <c r="C2" s="1">
         <v>9</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" s="12">
         <v>1</v>
       </c>
-      <c r="E2" s="11">
+      <c r="F2" s="11">
         <v>0.92</v>
       </c>
-      <c r="F2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -684,17 +693,20 @@
       <c r="C3" s="1">
         <v>3</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="12">
         <v>0.95</v>
       </c>
-      <c r="E3" s="11">
+      <c r="F3" s="11">
         <v>0.85</v>
       </c>
-      <c r="F3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -704,17 +716,20 @@
       <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="1">
+        <v>11</v>
+      </c>
+      <c r="E4" s="12">
         <v>0.27</v>
       </c>
-      <c r="E4" s="11">
+      <c r="F4" s="11">
         <v>0.32</v>
       </c>
-      <c r="F4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -724,17 +739,20 @@
       <c r="C5" s="1">
         <v>6</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
+      <c r="E5" s="12">
         <v>1</v>
       </c>
-      <c r="E5" s="11">
+      <c r="F5" s="11">
         <v>0.99</v>
       </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -744,17 +762,20 @@
       <c r="C6" s="1">
         <v>55</v>
       </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D6" s="1">
+        <v>54</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -764,17 +785,20 @@
       <c r="C7" s="1">
         <v>9</v>
       </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
         <v>0.03</v>
       </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -784,17 +808,20 @@
       <c r="C8" s="1">
         <v>7</v>
       </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -804,17 +831,20 @@
       <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -824,17 +854,20 @@
       <c r="C10" s="1">
         <v>3</v>
       </c>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -844,17 +877,20 @@
       <c r="C11" s="1">
         <v>27</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="1">
+        <v>29</v>
+      </c>
+      <c r="E11" s="12">
         <v>0.2</v>
       </c>
-      <c r="E11" s="11">
+      <c r="F11" s="11">
         <v>0.31</v>
       </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -864,17 +900,20 @@
       <c r="C12" s="1">
         <v>15</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="1">
+        <v>15</v>
+      </c>
+      <c r="E12" s="12">
         <v>0.42</v>
       </c>
-      <c r="E12" s="11">
+      <c r="F12" s="11">
         <v>0.42</v>
       </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -884,17 +923,20 @@
       <c r="C13" s="1">
         <v>4</v>
       </c>
-      <c r="D13" s="12">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -904,17 +946,20 @@
       <c r="C14" s="1">
         <v>4</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="12">
         <v>1</v>
       </c>
-      <c r="E14" s="11">
+      <c r="F14" s="11">
         <v>1</v>
       </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -924,17 +969,20 @@
       <c r="C15" s="1">
         <v>21</v>
       </c>
-      <c r="D15" s="12">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D15" s="1">
+        <v>20</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -944,17 +992,20 @@
       <c r="C16" s="1">
         <v>11</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="1">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12">
         <v>1</v>
       </c>
-      <c r="E16" s="11">
+      <c r="F16" s="11">
         <v>0.96</v>
       </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -964,17 +1015,20 @@
       <c r="C17" s="1">
         <v>7</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="1">
+        <v>7</v>
+      </c>
+      <c r="E17" s="12">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E17" s="11">
+      <c r="F17" s="11">
         <v>0.6</v>
       </c>
-      <c r="F17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -984,17 +1038,20 @@
       <c r="C18" s="1">
         <v>6</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="1">
+        <v>6</v>
+      </c>
+      <c r="E18" s="12">
         <v>1</v>
       </c>
-      <c r="E18" s="11">
+      <c r="F18" s="11">
         <v>0.99</v>
       </c>
-      <c r="F18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1004,17 +1061,20 @@
       <c r="C19" s="1">
         <v>8</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="1">
+        <v>8</v>
+      </c>
+      <c r="E19" s="12">
         <v>1</v>
       </c>
-      <c r="E19" s="11">
+      <c r="F19" s="11">
         <v>0.99</v>
       </c>
-      <c r="F19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1024,17 +1084,20 @@
       <c r="C20" s="1">
         <v>9</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="1">
+        <v>9</v>
+      </c>
+      <c r="E20" s="12">
         <v>1</v>
       </c>
-      <c r="E20" s="11">
+      <c r="F20" s="11">
         <v>0.97</v>
       </c>
-      <c r="F20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1044,17 +1107,20 @@
       <c r="C21" s="1">
         <v>4</v>
       </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="11">
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
         <v>0.1</v>
       </c>
-      <c r="F21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1064,17 +1130,20 @@
       <c r="C22" s="1">
         <v>10</v>
       </c>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-      <c r="E22" s="11">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D22" s="1">
+        <v>10</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1084,17 +1153,20 @@
       <c r="C23" s="1">
         <v>12</v>
       </c>
-      <c r="D23" s="12">
-        <v>0</v>
-      </c>
-      <c r="E23" s="11">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D23" s="1">
+        <v>12</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1104,17 +1176,20 @@
       <c r="C24" s="1">
         <v>17</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="1">
+        <v>16</v>
+      </c>
+      <c r="E24" s="12">
         <v>0.02</v>
       </c>
-      <c r="E24" s="11">
+      <c r="F24" s="11">
         <v>0.05</v>
       </c>
-      <c r="F24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1124,17 +1199,20 @@
       <c r="C25" s="1">
         <v>10</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="1">
+        <v>9</v>
+      </c>
+      <c r="E25" s="12">
         <v>0.01</v>
       </c>
-      <c r="E25" s="11">
+      <c r="F25" s="11">
         <v>0.04</v>
       </c>
-      <c r="F25">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1144,17 +1222,20 @@
       <c r="C26" s="1">
         <v>6</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="1">
+        <v>6</v>
+      </c>
+      <c r="E26" s="12">
         <v>1</v>
       </c>
-      <c r="E26" s="11">
+      <c r="F26" s="11">
         <v>0.92</v>
       </c>
-      <c r="F26">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1164,17 +1245,20 @@
       <c r="C27" s="1">
         <v>11</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="1">
+        <v>11</v>
+      </c>
+      <c r="E27" s="12">
         <v>0.98</v>
       </c>
-      <c r="E27" s="11">
+      <c r="F27" s="11">
         <v>0.94</v>
       </c>
-      <c r="F27">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1184,17 +1268,20 @@
       <c r="C28" s="1">
         <v>3</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="1">
+        <v>4</v>
+      </c>
+      <c r="E28" s="12">
         <v>0.98</v>
       </c>
-      <c r="E28" s="11">
+      <c r="F28" s="11">
         <v>0.82</v>
       </c>
-      <c r="F28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1204,17 +1291,20 @@
       <c r="C29" s="1">
         <v>5</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+      <c r="E29" s="12">
         <v>1</v>
       </c>
-      <c r="E29" s="11">
+      <c r="F29" s="11">
         <v>1</v>
       </c>
-      <c r="F29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1224,17 +1314,20 @@
       <c r="C30" s="1">
         <v>5</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+      <c r="E30" s="12">
         <v>0.05</v>
       </c>
-      <c r="E30" s="11">
+      <c r="F30" s="11">
         <v>0.12</v>
       </c>
-      <c r="F30">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1244,17 +1337,20 @@
       <c r="C31" s="1">
         <v>4</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="1">
+        <v>4</v>
+      </c>
+      <c r="E31" s="12">
         <v>0.01</v>
       </c>
-      <c r="E31" s="11">
+      <c r="F31" s="11">
         <v>0.11</v>
       </c>
-      <c r="F31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1264,17 +1360,20 @@
       <c r="C32" s="1">
         <v>15</v>
       </c>
-      <c r="D32" s="12">
-        <v>0</v>
-      </c>
-      <c r="E32" s="11">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D32" s="1">
+        <v>15</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1284,17 +1383,20 @@
       <c r="C33" s="1">
         <v>5</v>
       </c>
-      <c r="D33" s="12">
-        <v>0</v>
-      </c>
-      <c r="E33" s="11">
+      <c r="D33" s="1">
+        <v>5</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11">
         <v>0.02</v>
       </c>
-      <c r="F33">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1304,17 +1406,20 @@
       <c r="C34" s="1">
         <v>31</v>
       </c>
-      <c r="D34" s="12">
-        <v>0</v>
-      </c>
-      <c r="E34" s="11">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D34" s="1">
+        <v>30</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1324,17 +1429,20 @@
       <c r="C35" s="1">
         <v>15</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="1">
+        <v>16</v>
+      </c>
+      <c r="E35" s="12">
         <v>0.3</v>
       </c>
-      <c r="E35" s="11">
+      <c r="F35" s="11">
         <v>0.36</v>
       </c>
-      <c r="F35">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1344,17 +1452,20 @@
       <c r="C36" s="1">
         <v>3</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="1">
+        <v>3</v>
+      </c>
+      <c r="E36" s="12">
         <v>1</v>
       </c>
-      <c r="E36" s="11">
+      <c r="F36" s="11">
         <v>0.98</v>
       </c>
-      <c r="F36">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1364,17 +1475,20 @@
       <c r="C37" s="1">
         <v>20</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="1">
+        <v>19</v>
+      </c>
+      <c r="E37" s="12">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E37" s="11">
+      <c r="F37" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F37">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -1384,17 +1498,20 @@
       <c r="C38" s="1">
         <v>7</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="1">
+        <v>7</v>
+      </c>
+      <c r="E38" s="12">
         <v>1</v>
       </c>
-      <c r="E38" s="11">
+      <c r="F38" s="11">
         <v>1</v>
       </c>
-      <c r="F38">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1404,17 +1521,20 @@
       <c r="C39" s="1">
         <v>7</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="1">
+        <v>8</v>
+      </c>
+      <c r="E39" s="12">
         <v>0.05</v>
       </c>
-      <c r="E39" s="11">
+      <c r="F39" s="11">
         <v>0.02</v>
       </c>
-      <c r="F39">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -1424,17 +1544,20 @@
       <c r="C40" s="1">
         <v>21</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="1">
+        <v>20</v>
+      </c>
+      <c r="E40" s="12">
         <v>0.05</v>
       </c>
-      <c r="E40" s="11">
+      <c r="F40" s="11">
         <v>0.16</v>
       </c>
-      <c r="F40">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -1444,17 +1567,20 @@
       <c r="C41" s="1">
         <v>4</v>
       </c>
-      <c r="D41" s="12">
-        <v>0</v>
-      </c>
-      <c r="E41" s="11">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0</v>
+      </c>
+      <c r="F41" s="11">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -1464,17 +1590,20 @@
       <c r="C42" s="1">
         <v>8</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="1">
+        <v>8</v>
+      </c>
+      <c r="E42" s="12">
         <v>0.98</v>
       </c>
-      <c r="E42" s="11">
+      <c r="F42" s="11">
         <v>0.9</v>
       </c>
-      <c r="F42">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -1484,17 +1613,20 @@
       <c r="C43" s="1">
         <v>3</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="1">
+        <v>3</v>
+      </c>
+      <c r="E43" s="12">
         <v>1</v>
       </c>
-      <c r="E43" s="11">
+      <c r="F43" s="11">
         <v>0.95</v>
       </c>
-      <c r="F43">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -1504,17 +1636,20 @@
       <c r="C44" s="1">
         <v>11</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="1">
+        <v>11</v>
+      </c>
+      <c r="E44" s="12">
         <v>1</v>
       </c>
-      <c r="E44" s="11">
+      <c r="F44" s="11">
         <v>0.97</v>
       </c>
-      <c r="F44">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -1524,17 +1659,20 @@
       <c r="C45" s="1">
         <v>34</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="1">
+        <v>37</v>
+      </c>
+      <c r="E45" s="12">
         <v>0.7</v>
       </c>
-      <c r="E45" s="11">
+      <c r="F45" s="11">
         <v>0.62</v>
       </c>
-      <c r="F45">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -1544,17 +1682,20 @@
       <c r="C46" s="1">
         <v>5</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="1">
+        <v>5</v>
+      </c>
+      <c r="E46" s="12">
         <v>1</v>
       </c>
-      <c r="E46" s="11">
+      <c r="F46" s="11">
         <v>0.95</v>
       </c>
-      <c r="F46">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -1564,17 +1705,20 @@
       <c r="C47" s="1">
         <v>3</v>
       </c>
-      <c r="D47" s="12">
-        <v>0</v>
-      </c>
-      <c r="E47" s="11">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D47" s="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -1584,17 +1728,20 @@
       <c r="C48" s="1">
         <v>13</v>
       </c>
-      <c r="D48" s="12">
-        <v>0</v>
-      </c>
-      <c r="E48" s="11">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D48" s="1">
+        <v>13</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -1604,17 +1751,20 @@
       <c r="C49" s="1">
         <v>11</v>
       </c>
-      <c r="D49" s="12">
-        <v>0</v>
-      </c>
-      <c r="E49" s="11">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D49" s="1">
+        <v>11</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0</v>
+      </c>
+      <c r="F49" s="11">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -1624,17 +1774,20 @@
       <c r="C50" s="1">
         <v>5</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="1">
+        <v>4</v>
+      </c>
+      <c r="E50" s="12">
         <v>1</v>
       </c>
-      <c r="E50" s="11">
+      <c r="F50" s="11">
         <v>1</v>
       </c>
-      <c r="F50">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -1644,17 +1797,20 @@
       <c r="C51" s="1">
         <v>10</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="1">
+        <v>10</v>
+      </c>
+      <c r="E51" s="12">
         <v>0.02</v>
       </c>
-      <c r="E51" s="11">
+      <c r="F51" s="11">
         <v>0.06</v>
       </c>
-      <c r="F51">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -1664,21 +1820,25 @@
       <c r="C52" s="1">
         <v>3</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
+      <c r="E52" s="12">
         <v>1</v>
       </c>
-      <c r="E52" s="11">
+      <c r="F52" s="11">
         <v>1</v>
       </c>
-      <c r="F52">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="4"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="13"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
